--- a/data/data_raw/eurostat/AT_natural_gas_en_bal_nrg_bal_c.xlsx
+++ b/data/data_raw/eurostat/AT_natural_gas_en_bal_nrg_bal_c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM140"/>
+  <dimension ref="A1:AN140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -752,6 +757,9 @@
       </c>
       <c r="AM2" t="n">
         <v>6211.653</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5517.902</v>
       </c>
     </row>
     <row r="3">
@@ -816,6 +824,7 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -945,6 +954,9 @@
       <c r="AM4" t="n">
         <v>119485.8</v>
       </c>
+      <c r="AN4" t="n">
+        <v>69644.71400000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1074,6 +1086,9 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1203,6 +1218,9 @@
       <c r="AM6" t="n">
         <v>-45569.599</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-6628.859</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1332,6 +1350,9 @@
       <c r="AM7" t="n">
         <v>80127.853</v>
       </c>
+      <c r="AN7" t="n">
+        <v>68533.757</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1461,6 +1482,9 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1589,6 +1613,9 @@
       </c>
       <c r="AM9" t="n">
         <v>80127.853</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>68533.757</v>
       </c>
     </row>
     <row r="10">
@@ -1653,6 +1680,7 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1782,6 +1810,9 @@
       <c r="AM11" t="n">
         <v>80127.853</v>
       </c>
+      <c r="AN11" t="n">
+        <v>68533.757</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1794,7 +1825,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gross inland consumption (Europe 2020-2030) [GIC2020-2030]</t>
+          <t>Gross inland consumption - Energy Efficiency Directive [GIC_EED]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1845,6 +1876,7 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1857,7 +1889,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Primary energy consumption (Europe 2020-2030) [PEC2020-2030]</t>
+          <t>Primary energy consumption - Energy Efficiency Directive [PEC_EED]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1908,6 +1940,7 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1920,7 +1953,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Final energy consumption (Europe 2020-2030) [FEC2020-2030]</t>
+          <t>Final energy consumption - Energy Efficiency Directive [FEC_EED]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1971,6 +2004,7 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2095,10 +2129,13 @@
         <v>24265.64</v>
       </c>
       <c r="AL15" t="n">
-        <v>26021.701</v>
+        <v>25859.042</v>
       </c>
       <c r="AM15" t="n">
-        <v>24897.653</v>
+        <v>23860.408</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>17964.506</v>
       </c>
     </row>
     <row r="16">
@@ -2224,10 +2261,13 @@
         <v>24265.64</v>
       </c>
       <c r="AL16" t="n">
-        <v>26021.701</v>
+        <v>25859.042</v>
       </c>
       <c r="AM16" t="n">
-        <v>24897.653</v>
+        <v>23860.408</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>17964.506</v>
       </c>
     </row>
     <row r="17">
@@ -2356,7 +2396,10 @@
         <v>4098.508</v>
       </c>
       <c r="AM17" t="n">
-        <v>7337.596</v>
+        <v>6821.18</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3508.415</v>
       </c>
     </row>
     <row r="18">
@@ -2485,7 +2528,10 @@
         <v>15851.643</v>
       </c>
       <c r="AM18" t="n">
-        <v>13365.694</v>
+        <v>13195.793</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>10734.574</v>
       </c>
     </row>
     <row r="19">
@@ -2611,10 +2657,13 @@
         <v>1962.635</v>
       </c>
       <c r="AL19" t="n">
-        <v>2454.391</v>
+        <v>2291.732</v>
       </c>
       <c r="AM19" t="n">
-        <v>1718.756</v>
+        <v>1558.18</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1717.552</v>
       </c>
     </row>
     <row r="20">
@@ -2743,7 +2792,10 @@
         <v>1514.602</v>
       </c>
       <c r="AM20" t="n">
-        <v>614.79</v>
+        <v>424.438</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>383.096</v>
       </c>
     </row>
     <row r="21">
@@ -2874,6 +2926,9 @@
       <c r="AM21" t="n">
         <v>1847.128</v>
       </c>
+      <c r="AN21" t="n">
+        <v>1605.56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3002,6 +3057,9 @@
       </c>
       <c r="AM22" t="n">
         <v>13.689</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>15.309</v>
       </c>
     </row>
     <row r="23">
@@ -3066,6 +3124,7 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3129,6 +3188,7 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3192,6 +3252,7 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3255,6 +3316,7 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3318,6 +3380,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3447,6 +3510,9 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3576,6 +3642,9 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3703,6 +3772,9 @@
         <v>0</v>
       </c>
       <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3768,6 +3840,7 @@
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3831,6 +3904,7 @@
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3894,6 +3968,7 @@
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3957,6 +4032,7 @@
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4020,6 +4096,7 @@
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4083,6 +4160,7 @@
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4146,6 +4224,7 @@
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4209,6 +4288,7 @@
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4272,6 +4352,7 @@
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4335,6 +4416,7 @@
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4398,6 +4480,7 @@
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4461,6 +4544,7 @@
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4524,6 +4608,7 @@
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4653,6 +4738,9 @@
       <c r="AM44" t="n">
         <v>0</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4782,6 +4870,9 @@
       <c r="AM45" t="n">
         <v>0</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4910,6 +5001,9 @@
       </c>
       <c r="AM46" t="n">
         <v>123.128</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>120.635</v>
       </c>
     </row>
     <row r="47">
@@ -4974,6 +5068,7 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5037,6 +5132,7 @@
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
       <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5100,6 +5196,7 @@
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
       <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5163,6 +5260,7 @@
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5226,6 +5324,7 @@
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
       <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5289,6 +5388,7 @@
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
       <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5352,6 +5452,7 @@
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
       <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5415,6 +5516,7 @@
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5478,6 +5580,7 @@
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5541,6 +5644,7 @@
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
       <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5604,6 +5708,7 @@
       <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="inlineStr"/>
       <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5667,6 +5772,7 @@
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="inlineStr"/>
       <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5730,6 +5836,7 @@
       <c r="AK59" t="inlineStr"/>
       <c r="AL59" t="inlineStr"/>
       <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5793,6 +5900,7 @@
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="inlineStr"/>
       <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5856,6 +5964,7 @@
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="inlineStr"/>
       <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5919,6 +6028,7 @@
       <c r="AK62" t="inlineStr"/>
       <c r="AL62" t="inlineStr"/>
       <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5982,6 +6092,7 @@
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6045,6 +6156,7 @@
       <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6108,6 +6220,7 @@
       <c r="AK65" t="inlineStr"/>
       <c r="AL65" t="inlineStr"/>
       <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6171,6 +6284,7 @@
       <c r="AK66" t="inlineStr"/>
       <c r="AL66" t="inlineStr"/>
       <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6234,6 +6348,7 @@
       <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="inlineStr"/>
       <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6297,6 +6412,7 @@
       <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="inlineStr"/>
       <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6360,6 +6476,7 @@
       <c r="AK69" t="inlineStr"/>
       <c r="AL69" t="inlineStr"/>
       <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6423,6 +6540,7 @@
       <c r="AK70" t="inlineStr"/>
       <c r="AL70" t="inlineStr"/>
       <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6551,6 +6669,9 @@
       </c>
       <c r="AM71" t="n">
         <v>123.128</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>120.635</v>
       </c>
     </row>
     <row r="72">
@@ -6615,6 +6736,7 @@
       <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="inlineStr"/>
       <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6678,6 +6800,7 @@
       <c r="AK73" t="inlineStr"/>
       <c r="AL73" t="inlineStr"/>
       <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6741,6 +6864,7 @@
       <c r="AK74" t="inlineStr"/>
       <c r="AL74" t="inlineStr"/>
       <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6804,6 +6928,7 @@
       <c r="AK75" t="inlineStr"/>
       <c r="AL75" t="inlineStr"/>
       <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6933,6 +7058,9 @@
       <c r="AM76" t="n">
         <v>2195.194</v>
       </c>
+      <c r="AN76" t="n">
+        <v>2140.541</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7062,6 +7190,9 @@
       <c r="AM77" t="n">
         <v>0</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7191,6 +7322,9 @@
       <c r="AM78" t="n">
         <v>0</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7319,6 +7453,9 @@
       </c>
       <c r="AM79" t="n">
         <v>1002.191</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>677.857</v>
       </c>
     </row>
     <row r="80">
@@ -7383,6 +7520,7 @@
       <c r="AK80" t="inlineStr"/>
       <c r="AL80" t="inlineStr"/>
       <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7511,6 +7649,9 @@
       </c>
       <c r="AM81" t="n">
         <v>61.933</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>58.265</v>
       </c>
     </row>
     <row r="82">
@@ -7575,6 +7716,7 @@
       <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="inlineStr"/>
       <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7704,6 +7846,9 @@
       <c r="AM83" t="n">
         <v>0</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7833,6 +7978,9 @@
       <c r="AM84" t="n">
         <v>296.499</v>
       </c>
+      <c r="AN84" t="n">
+        <v>455.313</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7961,6 +8109,9 @@
       </c>
       <c r="AM85" t="n">
         <v>834.571</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>949.106</v>
       </c>
     </row>
     <row r="86">
@@ -8025,6 +8176,7 @@
       <c r="AK86" t="inlineStr"/>
       <c r="AL86" t="inlineStr"/>
       <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8088,6 +8240,7 @@
       <c r="AK87" t="inlineStr"/>
       <c r="AL87" t="inlineStr"/>
       <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8215,6 +8368,9 @@
         <v>0</v>
       </c>
       <c r="AM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8280,6 +8436,7 @@
       <c r="AK89" t="inlineStr"/>
       <c r="AL89" t="inlineStr"/>
       <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8407,6 +8564,9 @@
         <v>0</v>
       </c>
       <c r="AM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8472,6 +8632,7 @@
       <c r="AK91" t="inlineStr"/>
       <c r="AL91" t="inlineStr"/>
       <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8601,6 +8762,9 @@
       <c r="AM92" t="n">
         <v>0</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8730,6 +8894,9 @@
       <c r="AM93" t="n">
         <v>18.828</v>
       </c>
+      <c r="AN93" t="n">
+        <v>9.375999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8854,10 +9021,13 @@
         <v>58454.584</v>
       </c>
       <c r="AL94" t="n">
-        <v>61163.408</v>
+        <v>61326.068</v>
       </c>
       <c r="AM94" t="n">
-        <v>53139.307</v>
+        <v>54176.552</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>48539.969</v>
       </c>
     </row>
     <row r="95">
@@ -8986,7 +9156,10 @@
         <v>3829.838</v>
       </c>
       <c r="AM95" t="n">
-        <v>3413.182</v>
+        <v>3413.176</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>3558.583</v>
       </c>
     </row>
     <row r="96">
@@ -9115,7 +9288,10 @@
         <v>3829.838</v>
       </c>
       <c r="AM96" t="n">
-        <v>3413.182</v>
+        <v>3413.176</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>3558.583</v>
       </c>
     </row>
     <row r="97">
@@ -9180,6 +9356,7 @@
       <c r="AK97" t="inlineStr"/>
       <c r="AL97" t="inlineStr"/>
       <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9243,6 +9420,7 @@
       <c r="AK98" t="inlineStr"/>
       <c r="AL98" t="inlineStr"/>
       <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9370,7 +9548,10 @@
         <v>3829.838</v>
       </c>
       <c r="AM99" t="n">
-        <v>3413.182</v>
+        <v>3413.176</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>3558.583</v>
       </c>
     </row>
     <row r="100">
@@ -9501,6 +9682,9 @@
       <c r="AM100" t="n">
         <v>0</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9630,6 +9814,9 @@
       <c r="AM101" t="n">
         <v>0</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9754,10 +9941,13 @@
         <v>54516.555</v>
       </c>
       <c r="AL102" t="n">
-        <v>57333.569</v>
+        <v>57496.228</v>
       </c>
       <c r="AM102" t="n">
-        <v>49726.123</v>
+        <v>50763.375</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>44981.385</v>
       </c>
     </row>
     <row r="103">
@@ -9883,10 +10073,13 @@
         <v>30895.091</v>
       </c>
       <c r="AL103" t="n">
-        <v>32081.211</v>
+        <v>32387.495</v>
       </c>
       <c r="AM103" t="n">
-        <v>29808.791</v>
+        <v>30909.221</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>26870.511</v>
       </c>
     </row>
     <row r="104">
@@ -10012,10 +10205,13 @@
         <v>4772.169</v>
       </c>
       <c r="AL104" t="n">
-        <v>4354.589</v>
+        <v>4400.201</v>
       </c>
       <c r="AM104" t="n">
-        <v>4613.603</v>
+        <v>4795.352</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>4722.458</v>
       </c>
     </row>
     <row r="105">
@@ -10141,10 +10337,13 @@
         <v>5223.125</v>
       </c>
       <c r="AL105" t="n">
-        <v>5708.056</v>
+        <v>5762.561</v>
       </c>
       <c r="AM105" t="n">
-        <v>4587.541</v>
+        <v>4750.481</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>4422.369</v>
       </c>
     </row>
     <row r="106">
@@ -10270,10 +10469,13 @@
         <v>1229.23</v>
       </c>
       <c r="AL106" t="n">
-        <v>1386.273</v>
+        <v>1398.372</v>
       </c>
       <c r="AM106" t="n">
-        <v>1393.604</v>
+        <v>1437.924</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1303.275</v>
       </c>
     </row>
     <row r="107">
@@ -10399,10 +10601,13 @@
         <v>4556.233</v>
       </c>
       <c r="AL107" t="n">
-        <v>5203.962</v>
+        <v>5256.973</v>
       </c>
       <c r="AM107" t="n">
-        <v>4506.69</v>
+        <v>4678.588</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>3850.536</v>
       </c>
     </row>
     <row r="108">
@@ -10528,10 +10733,13 @@
         <v>470.175</v>
       </c>
       <c r="AL108" t="n">
-        <v>504.785</v>
+        <v>509.762</v>
       </c>
       <c r="AM108" t="n">
-        <v>537.854</v>
+        <v>558.013</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>310.447</v>
       </c>
     </row>
     <row r="109">
@@ -10657,10 +10865,13 @@
         <v>1669.081</v>
       </c>
       <c r="AL109" t="n">
-        <v>1836.026</v>
+        <v>1852.069</v>
       </c>
       <c r="AM109" t="n">
-        <v>1731.142</v>
+        <v>1785.982</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1566.127</v>
       </c>
     </row>
     <row r="110">
@@ -10786,10 +10997,13 @@
         <v>1630.851</v>
       </c>
       <c r="AL110" t="n">
-        <v>1137.48</v>
+        <v>1148.691</v>
       </c>
       <c r="AM110" t="n">
-        <v>723.473</v>
+        <v>1099.761</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>671.404</v>
       </c>
     </row>
     <row r="111">
@@ -10915,10 +11129,13 @@
         <v>3567.944</v>
       </c>
       <c r="AL111" t="n">
-        <v>3635.833</v>
+        <v>3666.355</v>
       </c>
       <c r="AM111" t="n">
-        <v>3781.212</v>
+        <v>3900.966</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>3095.959</v>
       </c>
     </row>
     <row r="112">
@@ -11044,10 +11261,13 @@
         <v>6051.146</v>
       </c>
       <c r="AL112" t="n">
-        <v>6363.69</v>
+        <v>6427.933</v>
       </c>
       <c r="AM112" t="n">
-        <v>5703.271</v>
+        <v>5768.811</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>4698.533</v>
       </c>
     </row>
     <row r="113">
@@ -11173,10 +11393,13 @@
         <v>573.21</v>
       </c>
       <c r="AL113" t="n">
-        <v>699.95</v>
+        <v>705.581</v>
       </c>
       <c r="AM113" t="n">
-        <v>653.619</v>
+        <v>672.909</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>828.729</v>
       </c>
     </row>
     <row r="114">
@@ -11302,10 +11525,13 @@
         <v>337.932</v>
       </c>
       <c r="AL114" t="n">
-        <v>315.327</v>
+        <v>317.586</v>
       </c>
       <c r="AM114" t="n">
-        <v>696.037</v>
+        <v>557.889</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>542.971</v>
       </c>
     </row>
     <row r="115">
@@ -11431,10 +11657,13 @@
         <v>386.585</v>
       </c>
       <c r="AL115" t="n">
-        <v>432.418</v>
+        <v>434.73</v>
       </c>
       <c r="AM115" t="n">
-        <v>377.438</v>
+        <v>385.159</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>375.791</v>
       </c>
     </row>
     <row r="116">
@@ -11560,10 +11789,13 @@
         <v>427.411</v>
       </c>
       <c r="AL116" t="n">
-        <v>502.819</v>
+        <v>506.68</v>
       </c>
       <c r="AM116" t="n">
-        <v>503.307</v>
+        <v>517.3869999999999</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>481.911</v>
       </c>
     </row>
     <row r="117">
@@ -11689,10 +11921,13 @@
         <v>2583.737</v>
       </c>
       <c r="AL117" t="n">
-        <v>2084.454</v>
+        <v>2085.082</v>
       </c>
       <c r="AM117" t="n">
-        <v>968.83</v>
+        <v>965.104</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>303.812</v>
       </c>
     </row>
     <row r="118">
@@ -11757,6 +11992,7 @@
       <c r="AK118" t="inlineStr"/>
       <c r="AL118" t="inlineStr"/>
       <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -11881,10 +12117,13 @@
         <v>226.256</v>
       </c>
       <c r="AL119" t="n">
-        <v>215.115</v>
+        <v>215.744</v>
       </c>
       <c r="AM119" t="n">
-        <v>211.109</v>
+        <v>207.383</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>189.129</v>
       </c>
     </row>
     <row r="120">
@@ -11949,6 +12188,7 @@
       <c r="AK120" t="inlineStr"/>
       <c r="AL120" t="inlineStr"/>
       <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12012,6 +12252,7 @@
       <c r="AK121" t="inlineStr"/>
       <c r="AL121" t="inlineStr"/>
       <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -12141,6 +12382,9 @@
       <c r="AM122" t="n">
         <v>757.721</v>
       </c>
+      <c r="AN122" t="n">
+        <v>114.683</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12270,6 +12514,9 @@
       <c r="AM123" t="n">
         <v>0</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12394,10 +12641,13 @@
         <v>21037.727</v>
       </c>
       <c r="AL124" t="n">
-        <v>23167.905</v>
+        <v>23023.651</v>
       </c>
       <c r="AM124" t="n">
-        <v>18948.503</v>
+        <v>18889.051</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>17807.061</v>
       </c>
     </row>
     <row r="125">
@@ -12523,10 +12773,13 @@
         <v>4045.823</v>
       </c>
       <c r="AL125" t="n">
-        <v>4462.214</v>
+        <v>4619.382</v>
       </c>
       <c r="AM125" t="n">
-        <v>3507.942</v>
+        <v>3536.89</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>3942.222</v>
       </c>
     </row>
     <row r="126">
@@ -12652,10 +12905,13 @@
         <v>16738.764</v>
       </c>
       <c r="AL126" t="n">
-        <v>18435.598</v>
+        <v>18132.41</v>
       </c>
       <c r="AM126" t="n">
-        <v>15210.311</v>
+        <v>15116.33</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>13734.515</v>
       </c>
     </row>
     <row r="127">
@@ -12781,10 +13037,13 @@
         <v>253.14</v>
       </c>
       <c r="AL127" t="n">
-        <v>270.093</v>
+        <v>271.858</v>
       </c>
       <c r="AM127" t="n">
-        <v>230.25</v>
+        <v>235.83</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>130.325</v>
       </c>
     </row>
     <row r="128">
@@ -12915,6 +13174,9 @@
       <c r="AM128" t="n">
         <v>0</v>
       </c>
+      <c r="AN128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -13044,6 +13306,9 @@
       <c r="AM129" t="n">
         <v>0</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13168,10 +13433,13 @@
         <v>-0.002</v>
       </c>
       <c r="AL130" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="131">
@@ -13300,7 +13568,10 @@
         <v>10617.882</v>
       </c>
       <c r="AM131" t="n">
-        <v>10882.212</v>
+        <v>10873.57</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>7495.264</v>
       </c>
     </row>
     <row r="132">
@@ -13431,6 +13702,9 @@
       <c r="AM132" t="n">
         <v>4352.37</v>
       </c>
+      <c r="AN132" t="n">
+        <v>2138.721</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -13558,7 +13832,10 @@
         <v>6500.899</v>
       </c>
       <c r="AM133" t="n">
-        <v>5153.947</v>
+        <v>5145.305</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>4165.012</v>
       </c>
     </row>
     <row r="134">
@@ -13689,6 +13966,9 @@
       <c r="AM134" t="n">
         <v>191.181</v>
       </c>
+      <c r="AN134" t="n">
+        <v>200.886</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -13818,6 +14098,9 @@
       <c r="AM135" t="n">
         <v>1184.714</v>
       </c>
+      <c r="AN135" t="n">
+        <v>990.645</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -13942,10 +14225,13 @@
         <v>7960.388</v>
       </c>
       <c r="AL136" t="n">
-        <v>9251.245999999999</v>
+        <v>9104.852000000001</v>
       </c>
       <c r="AM136" t="n">
-        <v>7553.654</v>
+        <v>7409.135</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>6574.057</v>
       </c>
     </row>
     <row r="137">
@@ -14076,6 +14362,9 @@
       <c r="AM137" t="n">
         <v>5745.459</v>
       </c>
+      <c r="AN137" t="n">
+        <v>4710.791</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -14200,10 +14489,13 @@
         <v>1747.503</v>
       </c>
       <c r="AL138" t="n">
-        <v>2194.366</v>
+        <v>2047.973</v>
       </c>
       <c r="AM138" t="n">
-        <v>1483.093</v>
+        <v>1338.574</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1541.025</v>
       </c>
     </row>
     <row r="139">
@@ -14334,6 +14626,9 @@
       <c r="AM139" t="n">
         <v>312.783</v>
       </c>
+      <c r="AN139" t="n">
+        <v>308.438</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -14462,6 +14757,9 @@
       </c>
       <c r="AM140" t="n">
         <v>12.32</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>13.803</v>
       </c>
     </row>
   </sheetData>
